--- a/templates/4COM02_ProteomicsDataProcessing/4COM02_ProteomicsDataProcessing.xlsx
+++ b/templates/4COM02_ProteomicsDataProcessing/4COM02_ProteomicsDataProcessing.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\4COM02_ProteomicsDataProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BE4A18-DA01-4F03-B426-6C5C7F044534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667F1AA5-D161-470C-A80C-DF799F974C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="4COM02_ProteomicsDataProcessing" sheetId="1" r:id="rId1"/>
+    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,8 +25,28 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={1099E1D0-D076-443E-894B-9E3ED68B03A6}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{1099E1D0-D076-443E-894B-9E3ED68B03A6}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    The unique identifier of this template. It will be auto generated.
+Antwort:
+    id=6364b4a3-aae5-40c8-a5e3-221139d1a7db</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Source Name</t>
   </si>
@@ -49,13 +70,139 @@
   </si>
   <si>
     <t>Data File Name</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Docslink</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>#ER list</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>ER Term Accession Number</t>
+  </si>
+  <si>
+    <t>ER Term Source REF</t>
+  </si>
+  <si>
+    <t>#TAGS list</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Tags Term Accession Number</t>
+  </si>
+  <si>
+    <t>Tags Term Source REF</t>
+  </si>
+  <si>
+    <t>#AUTHORS list</t>
+  </si>
+  <si>
+    <t>Authors Last Name</t>
+  </si>
+  <si>
+    <t>Authors First Name</t>
+  </si>
+  <si>
+    <t>Authors Mid Initials</t>
+  </si>
+  <si>
+    <t>Authors Email</t>
+  </si>
+  <si>
+    <t>Authors Phone</t>
+  </si>
+  <si>
+    <t>Authors Fax</t>
+  </si>
+  <si>
+    <t>Authors Address</t>
+  </si>
+  <si>
+    <t>Authors Affiliation</t>
+  </si>
+  <si>
+    <t>#AUTHORS ROLES list</t>
+  </si>
+  <si>
+    <t>Authors Roles</t>
+  </si>
+  <si>
+    <t>Authors Roles Term Accession Number</t>
+  </si>
+  <si>
+    <t>Authors Roles Term Source REF</t>
+  </si>
+  <si>
+    <t>6364b4a3-aae5-40c8-a5e3-221139d1a7db</t>
+  </si>
+  <si>
+    <t>Proteomics Computational Analyses</t>
+  </si>
+  <si>
+    <t>This protocol tackles the steps after obtaining measurement results in terms of computational analysis.</t>
+  </si>
+  <si>
+    <t>https://github.com/nfdi4plants/SWATE_templates/wiki/4COM02_ProteomicsDataProcessing</t>
+  </si>
+  <si>
+    <t>annotationTableMeanMonkey69</t>
+  </si>
+  <si>
+    <t>PRIDE</t>
+  </si>
+  <si>
+    <t>Computational analyses</t>
+  </si>
+  <si>
+    <t>Proteomics</t>
+  </si>
+  <si>
+    <t>Data processing</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Maus</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,19 +210,127 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFF5F5F5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF217346"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FCDB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0E5C2F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC21F3A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -84,8 +339,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -101,6 +386,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Oliver Maus" id="{71B35729-10BF-4316-90F7-835780667BB0}" userId="Oliver Maus" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,9 +672,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2021-11-03T17:00:32.36" personId="{71B35729-10BF-4316-90F7-835780667BB0}" id="{1099E1D0-D076-443E-894B-9E3ED68B03A6}">
+    <text>The unique identifier of this template. It will be auto generated.</text>
+  </threadedComment>
+  <threadedComment ref="A1" dT="2021-11-03T17:00:32.36" personId="{71B35729-10BF-4316-90F7-835780667BB0}" id="{F3A1487F-D695-482A-AC7F-8CB66EE05258}" parentId="{1099E1D0-D076-443E-894B-9E3ED68B03A6}">
+    <text>id=6364b4a3-aae5-40c8-a5e3-221139d1a7db</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="621" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -449,4 +751,232 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AAA522-F19E-4710-B970-316CC0A90CE6}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/templates/4COM02_ProteomicsDataProcessing/4COM02_ProteomicsDataProcessing.xlsx
+++ b/templates/4COM02_ProteomicsDataProcessing/4COM02_ProteomicsDataProcessing.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\4COM02_ProteomicsDataProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667F1AA5-D161-470C-A80C-DF799F974C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC99BFE-AA36-426F-9ED4-00391EA5AFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM02_ProteomicsDataProcessing" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="PRIDE_PROTEOMICS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
   <si>
     <t>Source Name</t>
   </si>
@@ -196,13 +197,73 @@
   </si>
   <si>
     <t>1.1.3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TermSourceRef</t>
+  </si>
+  <si>
+    <t>Ontology</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>Content type (validation)</t>
+  </si>
+  <si>
+    <t>Notes during templating</t>
+  </si>
+  <si>
+    <t>Target term</t>
+  </si>
+  <si>
+    <t>Instruction</t>
+  </si>
+  <si>
+    <t>Requirement (m/o/n)</t>
+  </si>
+  <si>
+    <t>Value (cv/s/d)</t>
+  </si>
+  <si>
+    <t>Additional information</t>
+  </si>
+  <si>
+    <t>Review comments</t>
+  </si>
+  <si>
+    <t>MS:1001455</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1001455</t>
+  </si>
+  <si>
+    <t>Parameter [analysis software]</t>
+  </si>
+  <si>
+    <t>MS:1001456</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1001456</t>
+  </si>
+  <si>
+    <t>MS:1001457</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1001457</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,12 +278,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -705,7 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -979,4 +1034,261 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/templates/4COM02_ProteomicsDataProcessing/4COM02_ProteomicsDataProcessing.xlsx
+++ b/templates/4COM02_ProteomicsDataProcessing/4COM02_ProteomicsDataProcessing.xlsx
@@ -8,19 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\4COM02_ProteomicsDataProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC99BFE-AA36-426F-9ED4-00391EA5AFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064DE770-F75E-4132-9584-650335F1838E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM02_ProteomicsDataProcessing" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
     <sheet name="PRIDE_PROTEOMICS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
   <si>
     <t>Source Name</t>
   </si>
@@ -257,6 +266,9 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/MS_1001457</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -312,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -390,11 +402,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD2D2D2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD2D2D2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD2D2D2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD2D2D2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -425,6 +452,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,7 +793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1040,9 +1073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1061,230 +1092,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="B2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="E3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="E4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="E5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="B6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="12" t="s">
         <v>50</v>
       </c>
     </row>

--- a/templates/4COM02_ProteomicsDataProcessing/4COM02_ProteomicsDataProcessing.xlsx
+++ b/templates/4COM02_ProteomicsDataProcessing/4COM02_ProteomicsDataProcessing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\4COM02_ProteomicsDataProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064DE770-F75E-4132-9584-650335F1838E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28FCFBF-1D40-49E9-8B5D-3AB1379CC62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="87">
   <si>
     <t>Source Name</t>
   </si>
@@ -205,9 +205,6 @@
     <t>Oliver</t>
   </si>
   <si>
-    <t>1.1.3</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -269,6 +266,57 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>SCIEX TOF/TOF Series Explorer Software</t>
+  </si>
+  <si>
+    <t>6300 Series Ion Trap Data Analysis Software</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>ChromaTOF HRT software</t>
+  </si>
+  <si>
+    <t>Xcalibur</t>
+  </si>
+  <si>
+    <t>apexControl</t>
+  </si>
+  <si>
+    <t>ChromaTOF software</t>
+  </si>
+  <si>
+    <t>Comet</t>
+  </si>
+  <si>
+    <t>Compass</t>
+  </si>
+  <si>
+    <t>BioAnalyst</t>
+  </si>
+  <si>
+    <t>BioTools</t>
+  </si>
+  <si>
+    <t>Term Source REF (MS:1001456)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (MS:1001456)</t>
+  </si>
+  <si>
+    <t>Bioworks</t>
+  </si>
+  <si>
+    <t>CAMERA</t>
+  </si>
+  <si>
+    <t>Data Explorer</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
   </si>
 </sst>
 </file>
@@ -483,13 +531,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8981A169-0B48-4306-8CD9-79DE884CD914}" name="annotationTableMeanMonkey69" displayName="annotationTableMeanMonkey69" ref="A1:H2" totalsRowShown="0">
-  <autoFilter ref="A1:H2" xr:uid="{8981A169-0B48-4306-8CD9-79DE884CD914}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8981A169-0B48-4306-8CD9-79DE884CD914}" name="annotationTableMeanMonkey69" displayName="annotationTableMeanMonkey69" ref="A1:K7" totalsRowShown="0">
+  <autoFilter ref="A1:K7" xr:uid="{8981A169-0B48-4306-8CD9-79DE884CD914}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{9D33EBA9-E976-47F0-A652-0B1821D8C43F}" name="Source Name"/>
     <tableColumn id="3" xr3:uid="{E71135D1-0AF1-4DB3-9E3C-109FCB98D843}" name="Parameter [acquisition software]"/>
     <tableColumn id="4" xr3:uid="{0E64F10C-AB2B-4F25-B895-6CB5B5E474A4}" name="Term Source REF (MS:1001455)"/>
     <tableColumn id="5" xr3:uid="{1F2569CC-0412-4A06-AC3C-C0F79EE79D56}" name="Term Accession Number (MS:1001455)"/>
+    <tableColumn id="2" xr3:uid="{3D7F80D3-7349-4002-87C2-5A6792628A92}" name="Parameter [analysis software]"/>
+    <tableColumn id="10" xr3:uid="{F319DF28-EE65-4ACB-8F86-3BABECBBCE8E}" name="Term Source REF (MS:1001456)"/>
+    <tableColumn id="11" xr3:uid="{8371D6FF-B861-4AF7-AADD-53BAD4A2D1B5}" name="Term Accession Number (MS:1001456)"/>
     <tableColumn id="6" xr3:uid="{0877D261-4CD4-43B0-B109-673D8A5A139C}" name="Parameter [data processing software]"/>
     <tableColumn id="7" xr3:uid="{CFA2B354-D88D-47A6-8F42-8ADFFBAB4EF9}" name="Term Source REF (MS:1001457)"/>
     <tableColumn id="8" xr3:uid="{409B465D-EF59-4256-B73A-316ADF4710F4}" name="Term Accession Number (MS:1001457)"/>
@@ -773,8 +824,11 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="628" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="650" row="3">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
@@ -789,25 +843,37 @@
 </we:webextension>
 </file>
 
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{8969CF02-7960-49D5-B045-8CBDB10648C2}">
+  <we:reference id="5d6f5462-3401-48ec-9406-d12882e9ad84" version="0.5.1.0" store="\\DT-P-2020-04-OM\swate_manifests" storeType="Filesystem"/>
+  <we:alternateReferences/>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.5703125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -821,16 +887,91 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -876,7 +1017,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1093,40 +1234,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1134,37 +1275,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1172,75 +1313,75 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>64</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>67</v>
-      </c>
       <c r="E4" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1248,37 +1389,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>70</v>
-      </c>
       <c r="J5" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1286,40 +1427,60 @@
         <v>7</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<customXml>
+  <SwateTable Table="annotationTableMeanMonkey69">
+    <TableValidation DateTime="2021-12-13 20:56" SwateVersion="0.5.1" TableName="annotationTableMeanMonkey69" Userlist="">
+      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="5" Unit="None" ValidationFormat="Text"/>
+      <ColumnValidation ColumnAdress="1" ColumnHeader="Parameter [acquisition software]" Importance="3" Unit="None" ValidationFormat="OntologyTerm (acquisition software)"/>
+      <ColumnValidation ColumnAdress="4" ColumnHeader="Parameter [analysis software]" Importance="3" Unit="None" ValidationFormat="OntologyTerm (analysis software)"/>
+      <ColumnValidation ColumnAdress="7" ColumnHeader="Parameter [data processing software]" Importance="3" Unit="None" ValidationFormat="OntologyTerm (data processing software)"/>
+      <ColumnValidation ColumnAdress="10" ColumnHeader="Data File Name" Importance="5" Unit="None" ValidationFormat="Text"/>
+    </TableValidation>
+  </SwateTable>
+</customXml>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4AAD021-7E27-4507-9529-ECD5B473238B}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
--- a/templates/4COM02_ProteomicsDataProcessing/4COM02_ProteomicsDataProcessing.xlsx
+++ b/templates/4COM02_ProteomicsDataProcessing/4COM02_ProteomicsDataProcessing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\4COM02_ProteomicsDataProcessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28FCFBF-1D40-49E9-8B5D-3AB1379CC62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1351CC-88F5-436A-9BA4-9A3AAB037FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="101">
   <si>
     <t>Source Name</t>
   </si>
@@ -316,7 +316,49 @@
     <t>Data Explorer</t>
   </si>
   <si>
-    <t>1.1.4</t>
+    <t>http://purl.obolibrary.org/obo/MS_1001483</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000688</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000551</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1001877</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000532</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000706</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1001799</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1002251</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000712</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000667</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000707</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000533</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1002871</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000536</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
   </si>
 </sst>
 </file>
@@ -824,7 +866,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="628" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="718" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="650" row="3">
@@ -862,14 +904,15 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="37.5703125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.5703125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="37.5703125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -912,66 +955,174 @@
       <c r="B2" t="s">
         <v>70</v>
       </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
       <c r="E2" t="s">
         <v>72</v>
       </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>88</v>
+      </c>
       <c r="H2" t="s">
         <v>72</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>71</v>
       </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
       <c r="E3" t="s">
         <v>76</v>
       </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>92</v>
+      </c>
       <c r="H3" t="s">
         <v>79</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>72</v>
       </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
       <c r="E4" t="s">
         <v>77</v>
       </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
       <c r="H4" t="s">
         <v>80</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>73</v>
       </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
       <c r="E5" t="s">
         <v>78</v>
       </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
+      </c>
       <c r="H5" t="s">
         <v>83</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>74</v>
       </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
       <c r="E6" t="s">
         <v>79</v>
       </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>95</v>
+      </c>
       <c r="H6" t="s">
         <v>84</v>
+      </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>75</v>
       </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
       <c r="E7" t="s">
         <v>80</v>
       </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>96</v>
+      </c>
       <c r="H7" t="s">
         <v>85</v>
+      </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1017,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
